--- a/df_list_20250210.xlsx
+++ b/df_list_20250210.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="542" uniqueCount="216">
   <si>
     <t>SITE_NO</t>
   </si>
@@ -415,16 +415,266 @@
   </si>
   <si>
     <t>「급경사지(제내1) 상시계측관리체계 구축 사업」 제안서 평가위원(후보자) 공개모집 공고</t>
+  </si>
+  <si>
+    <t>A087</t>
+  </si>
+  <si>
+    <t>강원도_정선군</t>
+  </si>
+  <si>
+    <t>https://eminwon.jeongseon.go.kr/emwp/jsp/ofr/OfrNotAncmtLSub.jsp?not_ancmt_se_code=01,04,05,06</t>
+  </si>
+  <si>
+    <t>「정선 인재발전소 공간디자인 및 시설·가구 제작·설치 사업」제안서 평가결...</t>
+  </si>
+  <si>
+    <t>A141</t>
+  </si>
+  <si>
+    <t>전라도_강진군</t>
+  </si>
+  <si>
+    <t>https://www.gangjin.go.kr/www/government/notice/gosi?page=1</t>
+  </si>
+  <si>
+    <t>2025년 강진군 정보시스템 유지관리 용역 제안서 평가 결과 공..새로운글</t>
+  </si>
+  <si>
+    <t>A144</t>
+  </si>
+  <si>
+    <t>전라도_구례군</t>
+  </si>
+  <si>
+    <t>https://www.gurye.go.kr/board/GosiList.do?not_ancmt_se_code=01,04,06,07&amp;menuNo=115004002001&amp;pageIndex=1</t>
+  </si>
+  <si>
+    <t>「구례 노후 공공하수관로 보수사업 등 2건」 비굴착 보수 공법(신기술·특...</t>
+  </si>
+  <si>
+    <t>A179</t>
+  </si>
+  <si>
+    <t>경상도_칠곡군</t>
+  </si>
+  <si>
+    <t>https://www.chilgok.go.kr/portal/saeol/gosi/list.do?mId=0201030000</t>
+  </si>
+  <si>
+    <t>2025년 칠곡아카데미 운영 위탁 용역 제안서 제출안내 공고</t>
+  </si>
+  <si>
+    <t>「2025년 부산 반려견 순찰대 운영 및 컨설팅 용역」제안서 정성적 평가 결과</t>
+  </si>
+  <si>
+    <t>https://www.busan.go.kr/nbgosi?curPage=2</t>
+  </si>
+  <si>
+    <t>A025</t>
+  </si>
+  <si>
+    <t>경기고시공고</t>
+  </si>
+  <si>
+    <t>https://www.gg.go.kr/bbs/board.do?bsIdx=469&amp;menuId=1547#page=1</t>
+  </si>
+  <si>
+    <t>경기 동북부 공공병원 설립 타당성 및 민간투자 적격성 조사 용역(재공고) 제안서 예비평가위원 공개 모집</t>
+  </si>
+  <si>
+    <t>https://www.gg.go.kr/bbs/board.do?bsIdx=469&amp;menuId=1547#page=4</t>
+  </si>
+  <si>
+    <t>경기도 교통영향평가 심의위원회 위원 공개 모집</t>
+  </si>
+  <si>
+    <t>고양시 고향사랑기금운용심의위원회 민간위원 선정 결과 공고</t>
+  </si>
+  <si>
+    <t>「2025년 고양시 교육훈련 통합 운영 용역」 제안서 평가위원회 평가결과...</t>
+  </si>
+  <si>
+    <t>2025년 용인 미래정책 제안 공모전 시행 공고</t>
+  </si>
+  <si>
+    <t>https://www.guri.go.kr/www/selectGosiNttList.do?key=387&amp;searchGosiSe=01,04,06&amp;pageIndex=2</t>
+  </si>
+  <si>
+    <t>A055</t>
+  </si>
+  <si>
+    <t>경기도_시흥시</t>
+  </si>
+  <si>
+    <t>https://www.siheung.go.kr/main/saeol/gosi/list.do?mId=0401040100</t>
+  </si>
+  <si>
+    <t>포동버스공영차고지 옹벽 설치공사 특정공법(신기술 또는 특허) 선정 기술제안서 제출 안내 재공고</t>
+  </si>
+  <si>
+    <t>A064</t>
+  </si>
+  <si>
+    <t>경기도_의왕시</t>
+  </si>
+  <si>
+    <t>https://eminwon.uiwang.go.kr/emwp/jsp/ofr/OfrNotAncmtL.jsp?not_ancmt_se_code=01,04,06&amp;homepage_pbs_yn=Y&amp;subCheck=Y&amp;ofr_pageSize=10&amp;jndinm=OfrNotAncmtEJB&amp;context=NTIS&amp;list_gubun=A&amp;epcCheck=''</t>
+  </si>
+  <si>
+    <t>2025 의왕어린이철도축제 행사 대행 용역 제안서 평가위원(후보자) 모집...</t>
+  </si>
+  <si>
+    <t>2025년 제1회 횡성군 지역보건의료심의위원회 회의록 공고</t>
+  </si>
+  <si>
+    <t>https://www.hsg.go.kr/www/selectBbsNttList.do?bbsNo=65&amp;key=821&amp;pageIndex=2</t>
+  </si>
+  <si>
+    <t>https://www.jecheon.go.kr/www/selectBbsNttList.do?bbsNo=18&amp;key=5233&amp;pageIndex=2</t>
+  </si>
+  <si>
+    <t>A094</t>
+  </si>
+  <si>
+    <t>충청도_청주시</t>
+  </si>
+  <si>
+    <t>https://www.cheongju.go.kr/www/selectEminwonNoticeList.do?key=23366&amp;notAncmtSeCd=&amp;searchCnd=all&amp;searchKrwd=&amp;pageIndex=2</t>
+  </si>
+  <si>
+    <t>「2025년 팝업 놀이터 운영ㆍ관리용역」 제안서 평가위원회 평가위원(후보자) 모집 공고</t>
+  </si>
+  <si>
+    <t>https://www.cheongju.go.kr/www/selectEminwonNoticeList.do?key=23366&amp;notAncmtSeCd=&amp;searchCnd=all&amp;searchKrwd=&amp;pageIndex=3</t>
+  </si>
+  <si>
+    <t>백현지구 사면보강공사 신기술·특정공법(신기술)선정 기술제안서 제출안내 공고</t>
+  </si>
+  <si>
+    <t>A095</t>
+  </si>
+  <si>
+    <t>충청도_충주시</t>
+  </si>
+  <si>
+    <t>https://www.chungju.go.kr/www/selectEminwonList.do?key=510&amp;ofr_pageSize=90&amp;ancmt_se_code=01,02,04&amp;pageIndex=1</t>
+  </si>
+  <si>
+    <t>2025년 충북 충주시 지역공동체 제안 공모사업 공고</t>
+  </si>
+  <si>
+    <t>A098</t>
+  </si>
+  <si>
+    <t>충청도_청주시_상당구</t>
+  </si>
+  <si>
+    <t>https://eminwon.cheongju.go.kr/emwp/jsp/ofr/OfrNotAncmtLSub.jsp?not_ancmt_se_code=01,04&amp;yyyy=2020</t>
+  </si>
+  <si>
+    <t>「2025년 팝업 놀이터 운영ㆍ관리용역」 제안서 평가위원회 평가위원(후보...</t>
+  </si>
+  <si>
+    <t>2025 벚꽃과 함께하는 제3회 청주 푸드트럭 축제 행사대행 용역 제안서...</t>
+  </si>
+  <si>
+    <t>백현지구 사면보강공사 신기술·특정공법(신기술)선정 기술제안서 제출안내 공...</t>
+  </si>
+  <si>
+    <t>제31회 충청남도장애인체육대회 종사자 근무복 구입'에 따른 제안서 평가...</t>
+  </si>
+  <si>
+    <t>[농산물 안전분석실 구축 기초 장비 시스템 구매] 제안사 평가위원(후보자...</t>
+  </si>
+  <si>
+    <t>https://www.yeosu.go.kr/www/govt/news/notify?page=2</t>
+  </si>
+  <si>
+    <t>『여수국가지질공원 기본계획 수립 및 인증신청』 용역 제안서 평가위원(후보...새로운글</t>
+  </si>
+  <si>
+    <t>https://www.yeosu.go.kr/www/govt/news/notify?page=3</t>
+  </si>
+  <si>
+    <t>섬박람회장 주 진입로변 경관개선사업' 제안서 평가위원(후보자) 공개모집새로운글</t>
+  </si>
+  <si>
+    <t>A150</t>
+  </si>
+  <si>
+    <t>전라도_영암군</t>
+  </si>
+  <si>
+    <t>https://www.yeongam.go.kr/home/www/open_information/yeongam_news/announcement/yeongam.go?page=1</t>
+  </si>
+  <si>
+    <t>영암군 용역심의위원회 위원 모집</t>
+  </si>
+  <si>
+    <t>영암군 지방재정계획·공시심의위원회 위원 모집</t>
+  </si>
+  <si>
+    <t>A152</t>
+  </si>
+  <si>
+    <t>전라도_장성군</t>
+  </si>
+  <si>
+    <t>https://www.jangseong.go.kr/home/www/news/jangseong/announcement?page=1</t>
+  </si>
+  <si>
+    <t>「초지지구 농어촌마을하수도 정비사업」 하수처리공법 선정 기...</t>
+  </si>
+  <si>
+    <t>A156</t>
+  </si>
+  <si>
+    <t>전라도_해남군</t>
+  </si>
+  <si>
+    <t>https://www.haenam.go.kr/planweb/board/list.9is?contentUid=18e3368f5d745106015de961fbbd205e&amp;boardUid=18e3368f644b01470164eeb23d7b30f5&amp;contentUid=18e3368f5d745106015de961fbbd205e&amp;recordCountPerPage=100</t>
+  </si>
+  <si>
+    <t>2025년 제1회 해남군 건축위원회 심의 결과 공고파일NEW</t>
+  </si>
+  <si>
+    <t>A160</t>
+  </si>
+  <si>
+    <t>경상도_구미시</t>
+  </si>
+  <si>
+    <t>https://www.gumi.go.kr/portal/saeol/gosi/list.do?seCode=01&amp;mid=0401040000</t>
+  </si>
+  <si>
+    <t>「구미시 인구 재구조화 대책 수립」 연구 용역 제안서 평가위원 명단 및 평가결과 공개</t>
+  </si>
+  <si>
+    <t>2025년 산림교육 운영사업 제안서 평가위원회 평가 결과 공고</t>
+  </si>
+  <si>
+    <t>제안서 평가위원(후보자) 모집 공고(2040 김해시 인구정책 기본계획 수립 용역)</t>
+  </si>
+  <si>
+    <t>https://www.gimhae.go.kr/03360/00023/00029.web?&amp;cpage=4</t>
+  </si>
+  <si>
+    <t>2025년 시내버스업체 회계감사 및 표준운송원가 산정 용역 제안서 평가위원(후보자) 공개모집 공고</t>
+  </si>
+  <si>
+    <t>https://www.tongyeong.go.kr/00852/00853/00858.web?&amp;cpage=2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="165" formatCode="yyyy-mm-dd h:mm:ss"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="6">
     <font>
       <sz val="11.0"/>
       <color theme="1"/>
@@ -446,6 +696,17 @@
       <sz val="11.0"/>
       <color theme="1"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <color rgb="FF000000"/>
+      <name val="&quot;맑은 고딕&quot;"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11.0"/>
+      <color rgb="FF000000"/>
+      <name val="&quot;맑은 고딕&quot;"/>
     </font>
   </fonts>
   <fills count="2">
@@ -476,7 +737,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="10">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -487,6 +748,21 @@
     <xf borderId="0" fillId="0" fontId="3" numFmtId="164" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf quotePrefix="1" borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1610,96 +1886,1806 @@
         <v>45698.5571875</v>
       </c>
     </row>
-    <row r="46" ht="15.75" customHeight="1"/>
-    <row r="47" ht="15.75" customHeight="1"/>
-    <row r="48" ht="15.75" customHeight="1"/>
-    <row r="49" ht="15.75" customHeight="1"/>
-    <row r="50" ht="15.75" customHeight="1"/>
-    <row r="51" ht="15.75" customHeight="1"/>
-    <row r="52" ht="15.75" customHeight="1"/>
-    <row r="53" ht="15.75" customHeight="1"/>
-    <row r="54" ht="15.75" customHeight="1"/>
-    <row r="55" ht="15.75" customHeight="1"/>
-    <row r="56" ht="15.75" customHeight="1"/>
-    <row r="57" ht="15.75" customHeight="1"/>
-    <row r="58" ht="15.75" customHeight="1"/>
-    <row r="59" ht="15.75" customHeight="1"/>
-    <row r="60" ht="15.75" customHeight="1"/>
-    <row r="61" ht="15.75" customHeight="1"/>
-    <row r="62" ht="15.75" customHeight="1"/>
-    <row r="63" ht="15.75" customHeight="1"/>
-    <row r="64" ht="15.75" customHeight="1"/>
-    <row r="65" ht="15.75" customHeight="1"/>
-    <row r="66" ht="15.75" customHeight="1"/>
-    <row r="67" ht="15.75" customHeight="1"/>
-    <row r="68" ht="15.75" customHeight="1"/>
-    <row r="69" ht="15.75" customHeight="1"/>
-    <row r="70" ht="15.75" customHeight="1"/>
-    <row r="71" ht="15.75" customHeight="1"/>
-    <row r="72" ht="15.75" customHeight="1"/>
-    <row r="73" ht="15.75" customHeight="1"/>
-    <row r="74" ht="15.75" customHeight="1"/>
-    <row r="75" ht="15.75" customHeight="1"/>
-    <row r="76" ht="15.75" customHeight="1"/>
-    <row r="77" ht="15.75" customHeight="1"/>
-    <row r="78" ht="15.75" customHeight="1"/>
-    <row r="79" ht="15.75" customHeight="1"/>
-    <row r="80" ht="15.75" customHeight="1"/>
-    <row r="81" ht="15.75" customHeight="1"/>
-    <row r="82" ht="15.75" customHeight="1"/>
-    <row r="83" ht="15.75" customHeight="1"/>
-    <row r="84" ht="15.75" customHeight="1"/>
-    <row r="85" ht="15.75" customHeight="1"/>
-    <row r="86" ht="15.75" customHeight="1"/>
-    <row r="87" ht="15.75" customHeight="1"/>
-    <row r="88" ht="15.75" customHeight="1"/>
-    <row r="89" ht="15.75" customHeight="1"/>
-    <row r="90" ht="15.75" customHeight="1"/>
-    <row r="91" ht="15.75" customHeight="1"/>
-    <row r="92" ht="15.75" customHeight="1"/>
-    <row r="93" ht="15.75" customHeight="1"/>
-    <row r="94" ht="15.75" customHeight="1"/>
-    <row r="95" ht="15.75" customHeight="1"/>
-    <row r="96" ht="15.75" customHeight="1"/>
-    <row r="97" ht="15.75" customHeight="1"/>
-    <row r="98" ht="15.75" customHeight="1"/>
-    <row r="99" ht="15.75" customHeight="1"/>
-    <row r="100" ht="15.75" customHeight="1"/>
-    <row r="101" ht="15.75" customHeight="1"/>
-    <row r="102" ht="15.75" customHeight="1"/>
-    <row r="103" ht="15.75" customHeight="1"/>
-    <row r="104" ht="15.75" customHeight="1"/>
-    <row r="105" ht="15.75" customHeight="1"/>
-    <row r="106" ht="15.75" customHeight="1"/>
-    <row r="107" ht="15.75" customHeight="1"/>
-    <row r="108" ht="15.75" customHeight="1"/>
-    <row r="109" ht="15.75" customHeight="1"/>
-    <row r="110" ht="15.75" customHeight="1"/>
-    <row r="111" ht="15.75" customHeight="1"/>
-    <row r="112" ht="15.75" customHeight="1"/>
-    <row r="113" ht="15.75" customHeight="1"/>
-    <row r="114" ht="15.75" customHeight="1"/>
-    <row r="115" ht="15.75" customHeight="1"/>
-    <row r="116" ht="15.75" customHeight="1"/>
-    <row r="117" ht="15.75" customHeight="1"/>
-    <row r="118" ht="15.75" customHeight="1"/>
-    <row r="119" ht="15.75" customHeight="1"/>
-    <row r="120" ht="15.75" customHeight="1"/>
-    <row r="121" ht="15.75" customHeight="1"/>
-    <row r="122" ht="15.75" customHeight="1"/>
-    <row r="123" ht="15.75" customHeight="1"/>
-    <row r="124" ht="15.75" customHeight="1"/>
-    <row r="125" ht="15.75" customHeight="1"/>
-    <row r="126" ht="15.75" customHeight="1"/>
-    <row r="127" ht="15.75" customHeight="1"/>
-    <row r="128" ht="15.75" customHeight="1"/>
-    <row r="129" ht="15.75" customHeight="1"/>
-    <row r="130" ht="15.75" customHeight="1"/>
-    <row r="131" ht="15.75" customHeight="1"/>
-    <row r="132" ht="15.75" customHeight="1"/>
-    <row r="133" ht="15.75" customHeight="1"/>
-    <row r="134" ht="15.75" customHeight="1"/>
-    <row r="135" ht="15.75" customHeight="1"/>
+    <row r="46" ht="15.75" customHeight="1">
+      <c r="A46" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="C46" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="D46" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="E46" s="7">
+        <v>45698.0</v>
+      </c>
+      <c r="F46" s="8">
+        <v>45698.95960648148</v>
+      </c>
+    </row>
+    <row r="47" ht="15.75" customHeight="1">
+      <c r="A47" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="B47" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="C47" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="D47" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="E47" s="7">
+        <v>45698.0</v>
+      </c>
+      <c r="F47" s="8">
+        <v>45698.95960648148</v>
+      </c>
+    </row>
+    <row r="48" ht="15.75" customHeight="1">
+      <c r="A48" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="B48" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="C48" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="D48" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="E48" s="7">
+        <v>45698.0</v>
+      </c>
+      <c r="F48" s="8">
+        <v>45698.95960648148</v>
+      </c>
+    </row>
+    <row r="49" ht="15.75" customHeight="1">
+      <c r="A49" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="B49" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="C49" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="D49" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="E49" s="7">
+        <v>45698.0</v>
+      </c>
+      <c r="F49" s="8">
+        <v>45698.95960648148</v>
+      </c>
+    </row>
+    <row r="50" ht="15.75" customHeight="1">
+      <c r="A50" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B50" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C50" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D50" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E50" s="7">
+        <v>45698.0</v>
+      </c>
+      <c r="F50" s="8">
+        <v>45698.95960648148</v>
+      </c>
+    </row>
+    <row r="51" ht="15.75" customHeight="1">
+      <c r="A51" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B51" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C51" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D51" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E51" s="7">
+        <v>45698.0</v>
+      </c>
+      <c r="F51" s="8">
+        <v>45698.95960648148</v>
+      </c>
+    </row>
+    <row r="52" ht="15.75" customHeight="1">
+      <c r="A52" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B52" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C52" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D52" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E52" s="7">
+        <v>45698.0</v>
+      </c>
+      <c r="F52" s="8">
+        <v>45698.95960648148</v>
+      </c>
+    </row>
+    <row r="53" ht="15.75" customHeight="1">
+      <c r="A53" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B53" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C53" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D53" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E53" s="7">
+        <v>45698.0</v>
+      </c>
+      <c r="F53" s="8">
+        <v>45698.95960648148</v>
+      </c>
+    </row>
+    <row r="54" ht="15.75" customHeight="1">
+      <c r="A54" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B54" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C54" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D54" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="E54" s="7">
+        <v>45698.0</v>
+      </c>
+      <c r="F54" s="8">
+        <v>45698.95960648148</v>
+      </c>
+    </row>
+    <row r="55" ht="15.75" customHeight="1">
+      <c r="A55" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B55" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C55" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="D55" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E55" s="7">
+        <v>45698.0</v>
+      </c>
+      <c r="F55" s="8">
+        <v>45698.95960648148</v>
+      </c>
+    </row>
+    <row r="56" ht="15.75" customHeight="1">
+      <c r="A56" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="B56" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="C56" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="D56" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="E56" s="7">
+        <v>45698.0</v>
+      </c>
+      <c r="F56" s="8">
+        <v>45698.95960648148</v>
+      </c>
+    </row>
+    <row r="57" ht="15.75" customHeight="1">
+      <c r="A57" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="B57" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="C57" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="D57" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="E57" s="7">
+        <v>45698.0</v>
+      </c>
+      <c r="F57" s="8">
+        <v>45698.95960648148</v>
+      </c>
+    </row>
+    <row r="58" ht="15.75" customHeight="1">
+      <c r="A58" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B58" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C58" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D58" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E58" s="7">
+        <v>45698.0</v>
+      </c>
+      <c r="F58" s="8">
+        <v>45698.95960648148</v>
+      </c>
+    </row>
+    <row r="59" ht="15.75" customHeight="1">
+      <c r="A59" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B59" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C59" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D59" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E59" s="7">
+        <v>45698.0</v>
+      </c>
+      <c r="F59" s="8">
+        <v>45698.95960648148</v>
+      </c>
+    </row>
+    <row r="60" ht="15.75" customHeight="1">
+      <c r="A60" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B60" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C60" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D60" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="E60" s="7">
+        <v>45698.0</v>
+      </c>
+      <c r="F60" s="8">
+        <v>45698.95960648148</v>
+      </c>
+    </row>
+    <row r="61" ht="15.75" customHeight="1">
+      <c r="A61" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B61" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C61" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D61" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="E61" s="7">
+        <v>45698.0</v>
+      </c>
+      <c r="F61" s="8">
+        <v>45698.95960648148</v>
+      </c>
+    </row>
+    <row r="62" ht="15.75" customHeight="1">
+      <c r="A62" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B62" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C62" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D62" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E62" s="7">
+        <v>45698.0</v>
+      </c>
+      <c r="F62" s="8">
+        <v>45698.95960648148</v>
+      </c>
+    </row>
+    <row r="63" ht="15.75" customHeight="1">
+      <c r="A63" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B63" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C63" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D63" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="E63" s="7">
+        <v>45698.0</v>
+      </c>
+      <c r="F63" s="8">
+        <v>45698.95960648148</v>
+      </c>
+    </row>
+    <row r="64" ht="15.75" customHeight="1">
+      <c r="A64" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B64" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C64" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D64" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="E64" s="7">
+        <v>45698.0</v>
+      </c>
+      <c r="F64" s="8">
+        <v>45698.95960648148</v>
+      </c>
+    </row>
+    <row r="65" ht="15.75" customHeight="1">
+      <c r="A65" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B65" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C65" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D65" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E65" s="7">
+        <v>45698.0</v>
+      </c>
+      <c r="F65" s="8">
+        <v>45698.95960648148</v>
+      </c>
+    </row>
+    <row r="66" ht="15.75" customHeight="1">
+      <c r="A66" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B66" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C66" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D66" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="E66" s="7">
+        <v>45698.0</v>
+      </c>
+      <c r="F66" s="8">
+        <v>45698.95960648148</v>
+      </c>
+    </row>
+    <row r="67" ht="15.75" customHeight="1">
+      <c r="A67" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B67" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C67" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D67" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="E67" s="7">
+        <v>45698.0</v>
+      </c>
+      <c r="F67" s="8">
+        <v>45698.95960648148</v>
+      </c>
+    </row>
+    <row r="68" ht="15.75" customHeight="1">
+      <c r="A68" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B68" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C68" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D68" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E68" s="7">
+        <v>45698.0</v>
+      </c>
+      <c r="F68" s="8">
+        <v>45698.95960648148</v>
+      </c>
+    </row>
+    <row r="69" ht="15.75" customHeight="1">
+      <c r="A69" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B69" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C69" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D69" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="E69" s="7">
+        <v>45698.0</v>
+      </c>
+      <c r="F69" s="8">
+        <v>45698.95960648148</v>
+      </c>
+    </row>
+    <row r="70" ht="15.75" customHeight="1">
+      <c r="A70" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B70" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C70" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D70" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="E70" s="7">
+        <v>45698.0</v>
+      </c>
+      <c r="F70" s="8">
+        <v>45698.95960648148</v>
+      </c>
+    </row>
+    <row r="71" ht="15.75" customHeight="1">
+      <c r="A71" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B71" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C71" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D71" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E71" s="7">
+        <v>45698.0</v>
+      </c>
+      <c r="F71" s="8">
+        <v>45698.95960648148</v>
+      </c>
+    </row>
+    <row r="72" ht="15.75" customHeight="1">
+      <c r="A72" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B72" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C72" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D72" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="E72" s="7">
+        <v>45698.0</v>
+      </c>
+      <c r="F72" s="8">
+        <v>45698.95960648148</v>
+      </c>
+    </row>
+    <row r="73" ht="15.75" customHeight="1">
+      <c r="A73" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B73" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C73" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D73" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="E73" s="7">
+        <v>45698.0</v>
+      </c>
+      <c r="F73" s="8">
+        <v>45698.95960648148</v>
+      </c>
+    </row>
+    <row r="74" ht="15.75" customHeight="1">
+      <c r="A74" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B74" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C74" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D74" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E74" s="7">
+        <v>45698.0</v>
+      </c>
+      <c r="F74" s="8">
+        <v>45698.95960648148</v>
+      </c>
+    </row>
+    <row r="75" ht="15.75" customHeight="1">
+      <c r="A75" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B75" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C75" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D75" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="E75" s="7">
+        <v>45698.0</v>
+      </c>
+      <c r="F75" s="8">
+        <v>45698.95960648148</v>
+      </c>
+    </row>
+    <row r="76" ht="15.75" customHeight="1">
+      <c r="A76" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B76" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C76" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D76" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="E76" s="7">
+        <v>45698.0</v>
+      </c>
+      <c r="F76" s="8">
+        <v>45698.95960648148</v>
+      </c>
+    </row>
+    <row r="77" ht="15.75" customHeight="1">
+      <c r="A77" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B77" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C77" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D77" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E77" s="7">
+        <v>45698.0</v>
+      </c>
+      <c r="F77" s="8">
+        <v>45698.95960648148</v>
+      </c>
+    </row>
+    <row r="78" ht="15.75" customHeight="1">
+      <c r="A78" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B78" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C78" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D78" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="E78" s="7">
+        <v>45698.0</v>
+      </c>
+      <c r="F78" s="8">
+        <v>45698.95960648148</v>
+      </c>
+    </row>
+    <row r="79" ht="15.75" customHeight="1">
+      <c r="A79" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B79" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C79" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D79" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="E79" s="7">
+        <v>45698.0</v>
+      </c>
+      <c r="F79" s="8">
+        <v>45698.95960648148</v>
+      </c>
+    </row>
+    <row r="80" ht="15.75" customHeight="1">
+      <c r="A80" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B80" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C80" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D80" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E80" s="7">
+        <v>45698.0</v>
+      </c>
+      <c r="F80" s="8">
+        <v>45698.95960648148</v>
+      </c>
+    </row>
+    <row r="81" ht="15.75" customHeight="1">
+      <c r="A81" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B81" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C81" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D81" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="E81" s="7">
+        <v>45698.0</v>
+      </c>
+      <c r="F81" s="8">
+        <v>45698.95960648148</v>
+      </c>
+    </row>
+    <row r="82" ht="15.75" customHeight="1">
+      <c r="A82" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B82" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C82" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D82" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="E82" s="7">
+        <v>45698.0</v>
+      </c>
+      <c r="F82" s="8">
+        <v>45698.95960648148</v>
+      </c>
+    </row>
+    <row r="83" ht="15.75" customHeight="1">
+      <c r="A83" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B83" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C83" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D83" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E83" s="7">
+        <v>45698.0</v>
+      </c>
+      <c r="F83" s="8">
+        <v>45698.95960648148</v>
+      </c>
+    </row>
+    <row r="84" ht="15.75" customHeight="1">
+      <c r="A84" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B84" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C84" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D84" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="E84" s="7">
+        <v>45698.0</v>
+      </c>
+      <c r="F84" s="8">
+        <v>45698.95960648148</v>
+      </c>
+    </row>
+    <row r="85" ht="15.75" customHeight="1">
+      <c r="A85" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B85" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C85" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D85" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="E85" s="7">
+        <v>45698.0</v>
+      </c>
+      <c r="F85" s="8">
+        <v>45698.95960648148</v>
+      </c>
+    </row>
+    <row r="86" ht="15.75" customHeight="1">
+      <c r="A86" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B86" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C86" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D86" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E86" s="7">
+        <v>45698.0</v>
+      </c>
+      <c r="F86" s="8">
+        <v>45698.95960648148</v>
+      </c>
+    </row>
+    <row r="87" ht="15.75" customHeight="1">
+      <c r="A87" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B87" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C87" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D87" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="E87" s="7">
+        <v>45698.0</v>
+      </c>
+      <c r="F87" s="8">
+        <v>45698.95960648148</v>
+      </c>
+    </row>
+    <row r="88" ht="15.75" customHeight="1">
+      <c r="A88" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B88" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C88" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D88" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E88" s="7">
+        <v>45698.0</v>
+      </c>
+      <c r="F88" s="8">
+        <v>45698.95960648148</v>
+      </c>
+    </row>
+    <row r="89" ht="15.75" customHeight="1">
+      <c r="A89" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B89" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C89" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D89" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E89" s="7">
+        <v>45698.0</v>
+      </c>
+      <c r="F89" s="8">
+        <v>45698.95960648148</v>
+      </c>
+    </row>
+    <row r="90" ht="15.75" customHeight="1">
+      <c r="A90" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B90" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C90" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D90" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E90" s="7">
+        <v>45698.0</v>
+      </c>
+      <c r="F90" s="8">
+        <v>45698.95960648148</v>
+      </c>
+    </row>
+    <row r="91" ht="15.75" customHeight="1">
+      <c r="A91" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B91" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C91" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D91" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="E91" s="7">
+        <v>45698.0</v>
+      </c>
+      <c r="F91" s="8">
+        <v>45698.95960648148</v>
+      </c>
+    </row>
+    <row r="92" ht="15.75" customHeight="1">
+      <c r="A92" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B92" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C92" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="D92" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="E92" s="7">
+        <v>45698.0</v>
+      </c>
+      <c r="F92" s="8">
+        <v>45698.95960648148</v>
+      </c>
+    </row>
+    <row r="93" ht="15.75" customHeight="1">
+      <c r="A93" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B93" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C93" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D93" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="E93" s="7">
+        <v>45698.0</v>
+      </c>
+      <c r="F93" s="8">
+        <v>45698.95960648148</v>
+      </c>
+    </row>
+    <row r="94" ht="15.75" customHeight="1">
+      <c r="A94" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B94" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C94" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="D94" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="E94" s="7">
+        <v>45698.0</v>
+      </c>
+      <c r="F94" s="8">
+        <v>45698.95960648148</v>
+      </c>
+    </row>
+    <row r="95" ht="15.75" customHeight="1">
+      <c r="A95" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="B95" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="C95" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="D95" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="E95" s="7">
+        <v>45698.0</v>
+      </c>
+      <c r="F95" s="8">
+        <v>45698.95960648148</v>
+      </c>
+    </row>
+    <row r="96" ht="15.75" customHeight="1">
+      <c r="A96" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="B96" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="C96" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="D96" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="E96" s="7">
+        <v>45698.0</v>
+      </c>
+      <c r="F96" s="8">
+        <v>45698.95960648148</v>
+      </c>
+    </row>
+    <row r="97" ht="15.75" customHeight="1">
+      <c r="A97" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B97" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C97" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="D97" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="E97" s="7">
+        <v>45698.0</v>
+      </c>
+      <c r="F97" s="8">
+        <v>45698.95960648148</v>
+      </c>
+    </row>
+    <row r="98" ht="15.75" customHeight="1">
+      <c r="A98" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B98" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C98" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="D98" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="E98" s="7">
+        <v>45698.0</v>
+      </c>
+      <c r="F98" s="8">
+        <v>45698.95960648148</v>
+      </c>
+    </row>
+    <row r="99" ht="15.75" customHeight="1">
+      <c r="A99" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B99" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="C99" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="D99" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="E99" s="7">
+        <v>45698.0</v>
+      </c>
+      <c r="F99" s="8">
+        <v>45698.95960648148</v>
+      </c>
+    </row>
+    <row r="100" ht="15.75" customHeight="1">
+      <c r="A100" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="B100" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="C100" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="D100" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="E100" s="7">
+        <v>45698.0</v>
+      </c>
+      <c r="F100" s="8">
+        <v>45698.95960648148</v>
+      </c>
+    </row>
+    <row r="101" ht="15.75" customHeight="1">
+      <c r="A101" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="B101" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="C101" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="D101" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="E101" s="7">
+        <v>45698.0</v>
+      </c>
+      <c r="F101" s="8">
+        <v>45698.95960648148</v>
+      </c>
+    </row>
+    <row r="102" ht="15.75" customHeight="1">
+      <c r="A102" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="B102" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="C102" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="D102" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="E102" s="7">
+        <v>45698.0</v>
+      </c>
+      <c r="F102" s="8">
+        <v>45698.95960648148</v>
+      </c>
+    </row>
+    <row r="103" ht="15.75" customHeight="1">
+      <c r="A103" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="B103" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="C103" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="D103" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="E103" s="7">
+        <v>45698.0</v>
+      </c>
+      <c r="F103" s="8">
+        <v>45698.95960648148</v>
+      </c>
+    </row>
+    <row r="104" ht="15.75" customHeight="1">
+      <c r="A104" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="B104" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="C104" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="D104" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="E104" s="7">
+        <v>45698.0</v>
+      </c>
+      <c r="F104" s="8">
+        <v>45698.95960648148</v>
+      </c>
+    </row>
+    <row r="105" ht="15.75" customHeight="1">
+      <c r="A105" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="B105" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="C105" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="D105" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="E105" s="7">
+        <v>45698.0</v>
+      </c>
+      <c r="F105" s="8">
+        <v>45698.95960648148</v>
+      </c>
+    </row>
+    <row r="106" ht="15.75" customHeight="1">
+      <c r="A106" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="B106" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="C106" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="D106" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="E106" s="7">
+        <v>45698.0</v>
+      </c>
+      <c r="F106" s="8">
+        <v>45698.95960648148</v>
+      </c>
+    </row>
+    <row r="107" ht="15.75" customHeight="1">
+      <c r="A107" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="B107" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="C107" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="D107" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="E107" s="7">
+        <v>45698.0</v>
+      </c>
+      <c r="F107" s="8">
+        <v>45698.95960648148</v>
+      </c>
+    </row>
+    <row r="108" ht="15.75" customHeight="1">
+      <c r="A108" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="B108" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="C108" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="D108" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="E108" s="7">
+        <v>45698.0</v>
+      </c>
+      <c r="F108" s="8">
+        <v>45698.95960648148</v>
+      </c>
+    </row>
+    <row r="109" ht="15.75" customHeight="1">
+      <c r="A109" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B109" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="C109" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="D109" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="E109" s="7">
+        <v>45696.0</v>
+      </c>
+      <c r="F109" s="8">
+        <v>45698.95960648148</v>
+      </c>
+    </row>
+    <row r="110" ht="15.75" customHeight="1">
+      <c r="A110" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="B110" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="C110" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="D110" s="9" t="s">
+        <v>188</v>
+      </c>
+      <c r="E110" s="7">
+        <v>45698.0</v>
+      </c>
+      <c r="F110" s="8">
+        <v>45698.95960648148</v>
+      </c>
+    </row>
+    <row r="111" ht="15.75" customHeight="1">
+      <c r="A111" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="B111" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="C111" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="D111" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="E111" s="7">
+        <v>45698.0</v>
+      </c>
+      <c r="F111" s="8">
+        <v>45698.95960648148</v>
+      </c>
+    </row>
+    <row r="112" ht="15.75" customHeight="1">
+      <c r="A112" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="B112" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="C112" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="D112" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="E112" s="7">
+        <v>45698.0</v>
+      </c>
+      <c r="F112" s="8">
+        <v>45698.95960648148</v>
+      </c>
+    </row>
+    <row r="113" ht="15.75" customHeight="1">
+      <c r="A113" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="B113" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="C113" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="D113" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="E113" s="7">
+        <v>45698.0</v>
+      </c>
+      <c r="F113" s="8">
+        <v>45698.95960648148</v>
+      </c>
+    </row>
+    <row r="114" ht="15.75" customHeight="1">
+      <c r="A114" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="B114" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="C114" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="D114" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="E114" s="7">
+        <v>45698.0</v>
+      </c>
+      <c r="F114" s="8">
+        <v>45698.95960648148</v>
+      </c>
+    </row>
+    <row r="115" ht="15.75" customHeight="1">
+      <c r="A115" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="B115" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="C115" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="D115" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="E115" s="7">
+        <v>45698.0</v>
+      </c>
+      <c r="F115" s="8">
+        <v>45698.95960648148</v>
+      </c>
+    </row>
+    <row r="116" ht="15.75" customHeight="1">
+      <c r="A116" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="B116" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="C116" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="D116" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="E116" s="7">
+        <v>45698.0</v>
+      </c>
+      <c r="F116" s="8">
+        <v>45698.95960648148</v>
+      </c>
+    </row>
+    <row r="117" ht="15.75" customHeight="1">
+      <c r="A117" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="B117" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="C117" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="D117" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="E117" s="7">
+        <v>45698.0</v>
+      </c>
+      <c r="F117" s="8">
+        <v>45698.95960648148</v>
+      </c>
+    </row>
+    <row r="118" ht="15.75" customHeight="1">
+      <c r="A118" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="B118" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="C118" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="D118" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="E118" s="7">
+        <v>45698.0</v>
+      </c>
+      <c r="F118" s="8">
+        <v>45698.95960648148</v>
+      </c>
+    </row>
+    <row r="119" ht="15.75" customHeight="1">
+      <c r="A119" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="B119" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="C119" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="D119" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="E119" s="7">
+        <v>45698.0</v>
+      </c>
+      <c r="F119" s="8">
+        <v>45698.95960648148</v>
+      </c>
+    </row>
+    <row r="120" ht="15.75" customHeight="1">
+      <c r="A120" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="B120" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="C120" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="D120" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="E120" s="7">
+        <v>45698.0</v>
+      </c>
+      <c r="F120" s="8">
+        <v>45698.95960648148</v>
+      </c>
+    </row>
+    <row r="121" ht="15.75" customHeight="1">
+      <c r="A121" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="B121" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="C121" s="6" t="s">
+        <v>209</v>
+      </c>
+      <c r="D121" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="E121" s="7">
+        <v>45698.0</v>
+      </c>
+      <c r="F121" s="8">
+        <v>45698.95960648148</v>
+      </c>
+    </row>
+    <row r="122" ht="15.75" customHeight="1">
+      <c r="A122" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="B122" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="C122" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="D122" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="E122" s="7">
+        <v>45698.0</v>
+      </c>
+      <c r="F122" s="8">
+        <v>45698.95960648148</v>
+      </c>
+    </row>
+    <row r="123" ht="15.75" customHeight="1">
+      <c r="A123" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="B123" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="C123" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="D123" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="E123" s="7">
+        <v>45698.0</v>
+      </c>
+      <c r="F123" s="8">
+        <v>45698.95960648148</v>
+      </c>
+    </row>
+    <row r="124" ht="15.75" customHeight="1">
+      <c r="A124" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="B124" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="C124" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="D124" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="E124" s="7">
+        <v>45698.0</v>
+      </c>
+      <c r="F124" s="8">
+        <v>45698.95960648148</v>
+      </c>
+    </row>
+    <row r="125" ht="15.75" customHeight="1">
+      <c r="A125" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="B125" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="C125" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="D125" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="E125" s="7">
+        <v>45698.0</v>
+      </c>
+      <c r="F125" s="8">
+        <v>45698.95960648148</v>
+      </c>
+    </row>
+    <row r="126" ht="15.75" customHeight="1">
+      <c r="A126" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="B126" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="C126" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="D126" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="E126" s="7">
+        <v>45698.0</v>
+      </c>
+      <c r="F126" s="8">
+        <v>45698.95960648148</v>
+      </c>
+    </row>
+    <row r="127" ht="15.75" customHeight="1">
+      <c r="A127" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="B127" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="C127" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="D127" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="E127" s="7">
+        <v>45698.0</v>
+      </c>
+      <c r="F127" s="8">
+        <v>45698.95960648148</v>
+      </c>
+    </row>
+    <row r="128" ht="15.75" customHeight="1">
+      <c r="A128" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="B128" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="C128" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="D128" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="E128" s="7">
+        <v>45698.0</v>
+      </c>
+      <c r="F128" s="8">
+        <v>45698.95960648148</v>
+      </c>
+    </row>
+    <row r="129" ht="15.75" customHeight="1">
+      <c r="A129" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="B129" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="C129" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="D129" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="E129" s="7">
+        <v>45698.0</v>
+      </c>
+      <c r="F129" s="8">
+        <v>45698.95960648148</v>
+      </c>
+    </row>
+    <row r="130" ht="15.75" customHeight="1">
+      <c r="A130" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="B130" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="C130" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="D130" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="E130" s="7">
+        <v>45698.0</v>
+      </c>
+      <c r="F130" s="8">
+        <v>45698.95960648148</v>
+      </c>
+    </row>
+    <row r="131" ht="15.75" customHeight="1">
+      <c r="A131" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="B131" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="C131" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="D131" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="E131" s="7">
+        <v>45698.0</v>
+      </c>
+      <c r="F131" s="8">
+        <v>45698.95960648148</v>
+      </c>
+    </row>
+    <row r="132" ht="15.75" customHeight="1">
+      <c r="A132" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="B132" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="C132" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="D132" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="E132" s="7">
+        <v>45698.0</v>
+      </c>
+      <c r="F132" s="8">
+        <v>45698.95960648148</v>
+      </c>
+    </row>
+    <row r="133" ht="15.75" customHeight="1">
+      <c r="A133" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="B133" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="C133" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="D133" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="E133" s="7">
+        <v>45698.0</v>
+      </c>
+      <c r="F133" s="8">
+        <v>45698.95960648148</v>
+      </c>
+    </row>
+    <row r="134" ht="15.75" customHeight="1">
+      <c r="A134" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="B134" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="C134" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="D134" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="E134" s="7">
+        <v>45698.0</v>
+      </c>
+      <c r="F134" s="8">
+        <v>45698.95960648148</v>
+      </c>
+    </row>
+    <row r="135" ht="15.75" customHeight="1">
+      <c r="A135" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="B135" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="C135" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="D135" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="E135" s="7">
+        <v>45698.0</v>
+      </c>
+      <c r="F135" s="8">
+        <v>45698.95960648148</v>
+      </c>
+    </row>
     <row r="136" ht="15.75" customHeight="1"/>
     <row r="137" ht="15.75" customHeight="1"/>
     <row r="138" ht="15.75" customHeight="1"/>
@@ -2566,9 +4552,101 @@
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
+  <hyperlinks>
+    <hyperlink r:id="rId1" ref="C46"/>
+    <hyperlink r:id="rId2" ref="C47"/>
+    <hyperlink r:id="rId3" ref="C48"/>
+    <hyperlink r:id="rId4" ref="C49"/>
+    <hyperlink r:id="rId5" ref="C50"/>
+    <hyperlink r:id="rId6" ref="C51"/>
+    <hyperlink r:id="rId7" location="list/1" ref="C52"/>
+    <hyperlink r:id="rId8" location="list/1" ref="C53"/>
+    <hyperlink r:id="rId9" ref="C54"/>
+    <hyperlink r:id="rId10" ref="C55"/>
+    <hyperlink r:id="rId11" location="page=1" ref="C56"/>
+    <hyperlink r:id="rId12" location="page=4" ref="C57"/>
+    <hyperlink r:id="rId13" ref="C58"/>
+    <hyperlink r:id="rId14" ref="C59"/>
+    <hyperlink r:id="rId15" ref="C60"/>
+    <hyperlink r:id="rId16" ref="C61"/>
+    <hyperlink r:id="rId17" ref="C62"/>
+    <hyperlink r:id="rId18" ref="C63"/>
+    <hyperlink r:id="rId19" ref="C64"/>
+    <hyperlink r:id="rId20" ref="C65"/>
+    <hyperlink r:id="rId21" ref="C66"/>
+    <hyperlink r:id="rId22" ref="C67"/>
+    <hyperlink r:id="rId23" ref="C68"/>
+    <hyperlink r:id="rId24" ref="C69"/>
+    <hyperlink r:id="rId25" ref="C70"/>
+    <hyperlink r:id="rId26" ref="C71"/>
+    <hyperlink r:id="rId27" ref="C72"/>
+    <hyperlink r:id="rId28" ref="C73"/>
+    <hyperlink r:id="rId29" ref="C74"/>
+    <hyperlink r:id="rId30" ref="C75"/>
+    <hyperlink r:id="rId31" ref="C76"/>
+    <hyperlink r:id="rId32" ref="C77"/>
+    <hyperlink r:id="rId33" ref="C78"/>
+    <hyperlink r:id="rId34" ref="C79"/>
+    <hyperlink r:id="rId35" ref="C80"/>
+    <hyperlink r:id="rId36" ref="C81"/>
+    <hyperlink r:id="rId37" ref="C82"/>
+    <hyperlink r:id="rId38" ref="C83"/>
+    <hyperlink r:id="rId39" ref="C84"/>
+    <hyperlink r:id="rId40" ref="C85"/>
+    <hyperlink r:id="rId41" ref="C86"/>
+    <hyperlink r:id="rId42" ref="C87"/>
+    <hyperlink r:id="rId43" ref="C88"/>
+    <hyperlink r:id="rId44" ref="C89"/>
+    <hyperlink r:id="rId45" ref="C90"/>
+    <hyperlink r:id="rId46" ref="C91"/>
+    <hyperlink r:id="rId47" ref="C92"/>
+    <hyperlink r:id="rId48" ref="C93"/>
+    <hyperlink r:id="rId49" ref="C94"/>
+    <hyperlink r:id="rId50" ref="C95"/>
+    <hyperlink r:id="rId51" ref="C96"/>
+    <hyperlink r:id="rId52" ref="C97"/>
+    <hyperlink r:id="rId53" ref="C98"/>
+    <hyperlink r:id="rId54" ref="C99"/>
+    <hyperlink r:id="rId55" ref="C100"/>
+    <hyperlink r:id="rId56" ref="C101"/>
+    <hyperlink r:id="rId57" ref="C102"/>
+    <hyperlink r:id="rId58" ref="C103"/>
+    <hyperlink r:id="rId59" ref="C104"/>
+    <hyperlink r:id="rId60" ref="C105"/>
+    <hyperlink r:id="rId61" ref="C106"/>
+    <hyperlink r:id="rId62" ref="C107"/>
+    <hyperlink r:id="rId63" ref="C108"/>
+    <hyperlink r:id="rId64" ref="C109"/>
+    <hyperlink r:id="rId65" ref="C110"/>
+    <hyperlink r:id="rId66" ref="C111"/>
+    <hyperlink r:id="rId67" ref="C112"/>
+    <hyperlink r:id="rId68" ref="C113"/>
+    <hyperlink r:id="rId69" ref="C114"/>
+    <hyperlink r:id="rId70" ref="C115"/>
+    <hyperlink r:id="rId71" ref="C116"/>
+    <hyperlink r:id="rId72" ref="C117"/>
+    <hyperlink r:id="rId73" ref="C118"/>
+    <hyperlink r:id="rId74" ref="C119"/>
+    <hyperlink r:id="rId75" ref="C120"/>
+    <hyperlink r:id="rId76" ref="C121"/>
+    <hyperlink r:id="rId77" ref="C122"/>
+    <hyperlink r:id="rId78" ref="C123"/>
+    <hyperlink r:id="rId79" ref="C124"/>
+    <hyperlink r:id="rId80" ref="C125"/>
+    <hyperlink r:id="rId81" ref="C126"/>
+    <hyperlink r:id="rId82" ref="C127"/>
+    <hyperlink r:id="rId83" ref="C128"/>
+    <hyperlink r:id="rId84" ref="C129"/>
+    <hyperlink r:id="rId85" ref="C130"/>
+    <hyperlink r:id="rId86" ref="C131"/>
+    <hyperlink r:id="rId87" ref="C132"/>
+    <hyperlink r:id="rId88" ref="C133"/>
+    <hyperlink r:id="rId89" ref="C134"/>
+    <hyperlink r:id="rId90" ref="C135"/>
+  </hyperlinks>
   <printOptions/>
   <pageMargins bottom="1.0" footer="0.0" header="0.0" left="0.75" right="0.75" top="1.0"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId1"/>
+  <drawing r:id="rId91"/>
 </worksheet>
 </file>